--- a/biology/Botanique/Narcissus_pseudonarcissus/Narcissus_pseudonarcissus.xlsx
+++ b/biology/Botanique/Narcissus_pseudonarcissus/Narcissus_pseudonarcissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonquille, Narcisse jaune, Narcisse trompette, Jeannette jaune
 Le Narcisse jaune, Narcisse trompette ou Jonquille (Narcissus pseudonarcissus) est une espèce de plantes monocotylédones à bulbe du genre des Narcisses et de la famille des Amaryllidacées.
@@ -513,18 +525,124 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique valide : Narcissus pseudonarcissus L.
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Narcisse jaune[1],[2], Narcisse trompette[1],[3],[2]. Au Canada : Jonquille[2].
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Jeannette jaune[1], Narcisse faux narcisse[1],[3],[2], Jonquille des bois[3] ou plus simplement Jonquille[1],[3], par confusion avec le Narcisse Jonquille (Narcissus jonquilla). On rencontre également de très nombreux autres noms vernaculaires en usage plus localement (voir plus bas).
-Étymologie
-La désignation Narcisse jaune est bien sûr due à la couleur ordinaire de la fleur. Le terme de Trompette provient de la paracorolle évasée. Le terme narciz est attesté en moyen français en 1363 selon le glossaire latin médiéval de Du Cange.
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Narcisse jaune Narcisse trompette. Au Canada : Jonquille.
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Jeannette jaune, Narcisse faux narcisse Jonquille des bois ou plus simplement Jonquille par confusion avec le Narcisse Jonquille (Narcissus jonquilla). On rencontre également de très nombreux autres noms vernaculaires en usage plus localement (voir plus bas).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La désignation Narcisse jaune est bien sûr due à la couleur ordinaire de la fleur. Le terme de Trompette provient de la paracorolle évasée. Le terme narciz est attesté en moyen français en 1363 selon le glossaire latin médiéval de Du Cange.
 On dit souvent que le mot narcisse est un hommage direct au Narcisse mythologique. Le nom latin narcissus, dérivé du nom grec narkissos de la plante souligne déjà la faculté à endormir de la fleur : le verbe grec narkaô signifie assoupir.
-Confusions possibles
-Il ne faut pas le confondre avec Narcissus bicolor L., autrefois nommé Narcissus pseudonarcissus L. subsp. bicolor Baker. Ce narcisse est souvent plus grand et le contraste de couleur entre le tube central et les tépales est encore plus grand.
-Noms vernaculaires
-Le narcisse a de nombreux noms vernaculaires[4], notamment :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne faut pas le confondre avec Narcissus bicolor L., autrefois nommé Narcissus pseudonarcissus L. subsp. bicolor Baker. Ce narcisse est souvent plus grand et le contraste de couleur entre le tube central et les tépales est encore plus grand.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le narcisse a de nombreux noms vernaculaires, notamment :
 « aillault » ou « ailault », en référence à l'ail ;
 « bonhomme » ;
 « chaudron », sans doute à cause du tube central évasé ;
@@ -546,49 +664,159 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Racine et tige
-Ce narcisse est une plante herbacée qui est vivace grâce à un bulbe ovoïde.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Racine et tige</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce narcisse est une plante herbacée qui est vivace grâce à un bulbe ovoïde.
 La tige est glabre. Elle est assez aplatie, deux angles sont visibles le long de la hampe. La plante fait généralement entre 20 et 40 cm de haut.
-Les feuilles
-Les feuilles sont plates et assez charnues. Leurs extrémités sont arrondies. Elles sont toutes linéaires, larges de 4 à 15 mm. Elles dépassent parfois la tige en longueur. Elles sont regroupées par 2, 3, 4 ou 5, toujours à la base de la plante. Elles sont de couleur bleu-vert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les feuilles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont plates et assez charnues. Leurs extrémités sont arrondies. Elles sont toutes linéaires, larges de 4 à 15 mm. Elles dépassent parfois la tige en longueur. Elles sont regroupées par 2, 3, 4 ou 5, toujours à la base de la plante. Elles sont de couleur bleu-vert.
 La plante est assez polymorphe. Selon l’éclairage, le terrain, elle aura une touffe de feuilles plus ou moins dense, la fleur sera érigée plus ou moins haut.
-La fleur
-La fleur jaune, qui ressemble à celle de la jonquille, est grande et mesure de 4 à 6 cm de diamètre ; elle entoure une couronne cylindrique crénelée de 2 cm de long.
-Chaque fleur, de couleur jaune, est solitaire au sommet d'une tige nue. La fleur sort d'une spathe membraneuse régulière, penchée, à tube soudée à l'ovaire, formée de six divisions soudées à leur base. Il se trouve parfois des échantillons à fleurs doubles, à étamines transformées en pièces florales. Sa floraison commence et se termine généralement au mois d'avril mais elle peut commencer dès le mois de janvier et se finir au mois de mai. La durée de vie de cette fleur est de deux ou trois semaines[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La fleur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur jaune, qui ressemble à celle de la jonquille, est grande et mesure de 4 à 6 cm de diamètre ; elle entoure une couronne cylindrique crénelée de 2 cm de long.
+Chaque fleur, de couleur jaune, est solitaire au sommet d'une tige nue. La fleur sort d'une spathe membraneuse régulière, penchée, à tube soudée à l'ovaire, formée de six divisions soudées à leur base. Il se trouve parfois des échantillons à fleurs doubles, à étamines transformées en pièces florales. Sa floraison commence et se termine généralement au mois d'avril mais elle peut commencer dès le mois de janvier et se finir au mois de mai. La durée de vie de cette fleur est de deux ou trois semaines.
 Une fleur est composée de 3 pétales et 3 sépales pétaloïdes, soit 6 tépales. Ceux-ci sont surmontés d’une paracorolle qui prend la forme d’un tube central évasé. Cet entonnoir a le contour dentelé ou lobé.
 Les 6 tépales sont soudés sur la moitié de leur longueur puis se déploient en étoile autour du tube central.
 Chaque pièce du périanthe, c'est-à-dire les tépales et le tube, ont même longueur : entre 15 et 25 mm.
 Les 6 tépales sont d’un jaune plus pâle que le tube central. La bractée à la base de chaque fleur est de surcroît d’un jaune encore plus pâle.
 Enfin au cœur de la paracorolle, 6 courtes étamines attachées sont visibles. Le mince style et son stigmate sont assez réduits.
 Les fleurs sentent plus ou moins. L’odeur à effet narcotique est entêtante, même si on ne s’en rend compte qu’après coup.
-Le fruit
-L'ovaire à maturation donne un fruit capsulaire à trois loges contenant les graines. La capsule est un peu trigone et charnue. La dissémination est barochore : les graines tombent au pied de la plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le fruit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ovaire à maturation donne un fruit capsulaire à trois loges contenant les graines. La capsule est un peu trigone et charnue. La dissémination est barochore : les graines tombent au pied de la plante.
 			Un fruit du narcisse jaune (Narcissus pseudonarcissus)
 			Coupe d'un fruit
 			Narcissus pseudonarcissus (Muséum de Toulouse)
@@ -596,73 +824,112 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le narcisse jaune apparaît souvent en colonies printanières importantes, dans les prés et les forêts. Comme beaucoup de narcisses, il est fréquemment appelé  jonquille , nom vernaculaire partagé avec Narcissus jonquilla qui pousse en région méditerranéenne.
 Sa répartition en Europe est très hétérogène : il peut être très commun par endroits et très rare en d'autres. On considère relativement commun ce narcisse dans presque toute la France jusqu’à 2 000 m d’altitude.
 Les narcisses vosgiens, appelés localement jonquilles, sont très abondants des chaumes aux prairies grasses, en particulier sur le versant occidental. Certains secteurs alsaciens, telles les ruines du Hollandsbourg depuis le XVIe siècle, sont renommés pour l'exceptionnelle densité de narcisses jaunes. L'espèce en outre-Rhin est par comparaison quasiment absente.
 On rencontre le narcisse jaune autant dans les prairies que les forêts, dans les taillis et les bords des chemins[réf. nécessaire].
 Il est très cultivé dans les jardins, après introduction de bulbes sauvages. Il est alors adventice et peut rester assez longtemps si le terrain est assez humide. La floraison a lieu de mars à mai (elle dépend de la zone géographique et de l'écotype local)[réf. nécessaire].
-En Suisse on le trouve dans les chênaies à Charme (Carpinion) dans la région genevoise et au Nord en dessous de 600 m[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+En Suisse on le trouve dans les chênaies à Charme (Carpinion) dans la région genevoise et au Nord en dessous de 600 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Narcissus pseudonarcissus a été décrite en 1753 par le naturaliste suédois Carl von Linné.
-La classification phylogénétique APG III (2009)[7] la place dans la famille des Amaryllidaceae, alors que la classification classique de Cronquist (1981)[8] la plaçait auparavant dans la famille des Liliaceae.
-Synonymes
-L'espèce admet de très nombreux synonymes :
-Selon The Plant List            (28 février 2017)[9] :
+La classification phylogénétique APG III (2009) la place dans la famille des Amaryllidaceae, alors que la classification classique de Cronquist (1981) la plaçait auparavant dans la famille des Liliaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce admet de très nombreux synonymes :
+Selon The Plant List            (28 février 2017) :
 Ajax breviflos Haw.
 Ajax cambricus Haw.
 Ajax fenestralis Gray
@@ -688,9 +955,45 @@
 Narcissus serratus Haw.
 Narcissus telamonius (Haw.) Link
 Oileus hexangularis Haw.
-Liste des sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Synonymes selon Tropicos
-Selon Tropicos                                           (28 février 2017)[10] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 Narcissus pseudonarcissus subsp. abscissus (Haw.) K. Richt.
 Narcissus pseudonarcissus subsp. bicolor (L.) Baker
 Narcissus pseudonarcissus subsp. calcicarpetanus (Fern. Casas) Fern. Casas
@@ -713,101 +1016,107 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Statuts de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa cueillette est réglementée dans le Doubs, le Jura, la Haute-Saône[réf. souhaitée], le Nord-Pas-de-Calais[11], l'Isère[12], la Creuse[13] entre autres. Il est protégé en Mayenne, par exemple, et dans quelques régions d’Allemagne. Une sous-espèce, Narcissus pseudonarcissus nobilis, est protégée en Hongrie.[réf. souhaitée]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa cueillette est réglementée dans le Doubs, le Jura, la Haute-Saône[réf. souhaitée], le Nord-Pas-de-Calais, l'Isère, la Creuse entre autres. Il est protégé en Mayenne, par exemple, et dans quelques régions d’Allemagne. Une sous-espèce, Narcissus pseudonarcissus nobilis, est protégée en Hongrie.[réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le narcisse contient des composés chimiques toxiques paralysants, parfois même urticants pour certaines personnes, ainsi que dans son bulbe des alcaloïdes isoquinoléiques, dont la galanthamine et la lycorine[14], et un autre alcaloïde puissant, la narcétine. Ainsi le bulbe est très toxique. Son ingestion entraîne nausée et vomissements, à l'instar de l'ingestion de quelques feuilles vertes ou le fait de sucer une tige. Dans de rares cas, l'ingestion du bulbe entraine de graves accidents nerveux tétaniformes qui mènent à l'état létal.
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le narcisse contient des composés chimiques toxiques paralysants, parfois même urticants pour certaines personnes, ainsi que dans son bulbe des alcaloïdes isoquinoléiques, dont la galanthamine et la lycorine, et un autre alcaloïde puissant, la narcétine. Ainsi le bulbe est très toxique. Son ingestion entraîne nausée et vomissements, à l'instar de l'ingestion de quelques feuilles vertes ou le fait de sucer une tige. Dans de rares cas, l'ingestion du bulbe entraine de graves accidents nerveux tétaniformes qui mènent à l'état létal.
 Les fleurs, feuilles et tiges sont toxiques. Mais c’est le bulbe qui est la partie la plus toxique de la plante. Les animaux comme les humains sont concernés. Toutefois, il faut signaler que l'ancienne culture paysanne des hauteurs vosgiennes, qui connaissait parfaitement ces caractéristiques, a préservé cette plante. Le narcisse abondant des prairies n'est pas brouté par le bétail. De plus, les feuilles disparaissent au moment de la fenaison et les bulbes restent enfouis sous les racines des graminées. Les narcisses ne causent aucune détérioration des prairies de fauche. Mieux, les bulbes jouent un rôle dans la stabilisation des sols de prairies aux abords des ruisseaux.
-Le bulbe principalement, mais aussi toute la plante, est vénéneux. La sève contient des cristaux d'oxalate de calcium en forme d'aiguilles qui causent des inflammations douloureuses[14]. La toxicité du bulbe ingéré se signale par des douleurs abdominales, des vomissements, des étourdissements ou des frissons. Le vomissement permet généralement le rejet des morceaux de bulbe ingéré, ce qui atténue le danger. Sinon les symptômes peuvent être plus graves.
+Le bulbe principalement, mais aussi toute la plante, est vénéneux. La sève contient des cristaux d'oxalate de calcium en forme d'aiguilles qui causent des inflammations douloureuses. La toxicité du bulbe ingéré se signale par des douleurs abdominales, des vomissements, des étourdissements ou des frissons. Le vomissement permet généralement le rejet des morceaux de bulbe ingéré, ce qui atténue le danger. Sinon les symptômes peuvent être plus graves.
 Les personnes fragiles peuvent avoir des dermites au contact de tout organe de la plante.
 Le parfum du narcisse jaune est plus ou moins discret mais il peut s'avérer entêtant et endormant pour certaines personnes. La présence d’un bouquet de narcisses jaunes dans une pièce close est ainsi parfois déconseillée. Cette propriété endormante n'a semble-t-il jamais été utilisée en médecine.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_pseudonarcissus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Utilisation par l’homme</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les propriétés émétiques du bulbe ont été signalées par les grands médecins antiques, parmi lesquels Pline l'Ancien, Dioscoride (Mat. med.[15], V, 158) et Galien[n 1]. L'usage en faisait aussi un purgatif extrêmement violent.
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les propriétés émétiques du bulbe ont été signalées par les grands médecins antiques, parmi lesquels Pline l'Ancien, Dioscoride (Mat. med., V, 158) et Galien[n 1]. L'usage en faisait aussi un purgatif extrêmement violent.
 Depuis les temps modernes, aucune utilisation interne n'est recommandée. Les fleurs possèdent des propriétés antispasmodiques. Elles étaient utilisée en thérapie comme calmants et sédatifs. On les emploie traditionnellement et à dosage strict dans certains occasions contre l'asthme et diverses affections nerveuses, également contre la coqueluche[réf. nécessaire].
-Le narcisse jaune est principalement employé pour l'ornementation, la décoration. Cependant le centre suisse antipoison le déconseille dans les places de jeux et jardins accessibles aux enfants[16]. Des variétés commerciales permettent de produire des bouquets au printemps. En intérieur, on utilise des fleurs coupées de plantes sauvages ou cultivées. En extérieur, on peut planter des bulbes de provenance sauvage[réf. nécessaire]. La réussite est alors conditionnelle.
+Le narcisse jaune est principalement employé pour l'ornementation, la décoration. Cependant le centre suisse antipoison le déconseille dans les places de jeux et jardins accessibles aux enfants. Des variétés commerciales permettent de produire des bouquets au printemps. En intérieur, on utilise des fleurs coupées de plantes sauvages ou cultivées. En extérieur, on peut planter des bulbes de provenance sauvage[réf. nécessaire]. La réussite est alors conditionnelle.
 On cultive plus généralement dans les jardins, des espèces dérivées ou des hybrides, plus grands, plus robustes et de couleurs plus variées. Ces variétés sont plus ou moins odorantes.
 La Fête des Jonquilles est organisée en général à la mi-avril tous les deux ans par la ville de Gérardmer (Vosges). La manifestation depuis 1935 attire des milliers de personnes, elle consiste en un défilé de chars thématiques décorés avec des narcisses. À la Belle Époque ou dans l'entre-deux-guerres, de nombreux rassemblements dans les vallées de la Haute Meurthe célèbrent la fête des Gauglés. On retrouve dans les années trente la date du 18 avril pour les communes de Fraize et Plainfaing.
 </t>
